--- a/results/2016年第3季.xlsx
+++ b/results/2016年第3季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7578 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>194</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>798,678</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>657,442</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>227,030</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>176,676</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>204,811</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>271,013</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-313,501</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>204,576</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>793,042</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,281,916</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,963,364</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,554,610</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,257,250</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,531,132</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,311,982</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,463,378</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-1,561,915</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-4,262,744</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,227,118</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5,389,865</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,360,320</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>32,729,238</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,183,416</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>220,365</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-403,825</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1,162,249</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>145,826</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-2,151,930</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2,122,675</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-493,392</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>20,600,374</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-4.14</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-2.36</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>21,007,870</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>48,007,138</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-2.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>228</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12,337,357</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,629,486</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,497,281</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,483,443</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2,749,280</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-304,899</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-2,526,529</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2,486,590</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7,385,072</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2,240,676</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>28,866,594</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>378</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>382,626</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>213,217</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>155,130</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>117,065</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>98,584</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-37,536</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-58,376</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>92,209</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>382,819</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>27,896</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1,530,253</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>103</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14,623,143</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,477,823</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>817,124</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>717,087</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>877,969</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-607,610</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-1,372,215</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>356,081</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>20,884,373</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>5,705,960</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>41,496,801</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,852</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-27,716</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>82,669</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-17,803</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>19,509</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-74,401</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>49,049</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>146,920</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,634,985</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,553,008</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,253,906</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>864,355</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1,001,387</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,150,362</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>683,865</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-1,407,939</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>289,446</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>7,118,633</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>13,191,693</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>25,306,386</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,025,269</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>393,406</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>235,527</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>189,915</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>107,509</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-142,763</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>260,611</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-12,433</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,780,346</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>982,307</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4,810,069</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,660,109</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,265,657</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>927,426</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>597,112</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>596,271</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>341,624</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-1,603,753</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>136,347</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>10,221,300</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>14,218,067</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>33,924,961</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,734,146</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>696,251</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>348,239</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>308,611</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>259,870</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-255,342</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>141,496</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-39,973</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,438,890</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3,984,701</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>10,704,848</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7,603,194</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>247,356</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-63,345</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-11,978</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-1,571,131</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-605,459</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1,419,180</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-1,724,738</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>25,101,862</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-1.17</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15,456,226</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>76,525,628</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>254,398</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>54,161</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-4,619</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2,318</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16,084</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1,283</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-22,710</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>15,870</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>481,280</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>479,453</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,336,309</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>227</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15,922,450</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,971,073</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>500,228</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>548,043</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>337,474</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-946,039</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-947,757</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-633,373</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>19,318,375</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>9,701,073</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>24,383,216</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>534,753</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>95,779</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5,509</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3,896</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>106,272</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-15,789</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-62,926</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,520,070</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,983,806</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,557,844</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,695,130</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>519,371</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>359,791</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>291,711</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>562,746</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-1,869,980</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>863,347</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>205,025</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4,793,258</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,161,004</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>15,051,587</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,497,341</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>832,504</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>179,567</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>76,748</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>240,759</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-94,423</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-90,207</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>178,758</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6,069,528</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,875,551</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,129,010</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>708,382</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>179,122</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31,744</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>26,222</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>100,904</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-36,637</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-50,339</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>68,485</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>440,181</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>188,569</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,149,241</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,044,426</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-46,384</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-168,284</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-146,262</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>209,928</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-249,473</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-21,394</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-33,740</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2,628,512</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-2.69</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,085,874</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>7,999,746</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>426,107</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>135,321</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68,109</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>35,380</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>39,031</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-27,044</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-33,169</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>57,805</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>740,794</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>657,457</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,971,140</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>138</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>127,382</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35,534</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>12,637</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6,439</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>16,744</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1,640</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>227,549</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>3,945</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>151,209</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>311,646</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1,105,711</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>72,056</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>50,166</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2,776</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1,413</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1,931</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-4,204</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,233</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-1,882</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>134,899</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>138,880</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>520,954</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>369,841</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>84,543</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>43,465</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>24,400</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-90,193</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-20,147</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-635,032</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-110,133</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>379,124</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,313,843</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,259,986</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,436,629</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>632,103</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>239,238</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>204,675</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>175,892</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-65,474</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>48,385</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>145,743</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,505,281</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,924,945</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,322,651</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4,553,932</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>490,258</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>118,240</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>183,317</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>52,849</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-49,816</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-56,012</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-8,594</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,211,527</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,815,664</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,706,299</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5,871,050</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>980,019</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>406,279</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>346,874</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-561,740</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-117,359</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1,135,110</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-713,594</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>15,580,367</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,387,612</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>23,402,933</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-77,075</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-74,237</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-5,044</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>27,108</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>553,407</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-5,142</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>35,593</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-10.73</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-10.34</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>21,005</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>968,787</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3,694,280</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-896,716</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-1,016,693</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-846,882</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-1,401,056</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-189,929</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1,610,100</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-1,459,933</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>12,137,903</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-6.47</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-3.44</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,646,061</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>24,807,640</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-1.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,179,637</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>325,937</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>141,466</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>90,723</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>112,845</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-7,065</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-250,805</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>86,165</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,247,221</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,022,361</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>3,664,680</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>41.05</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>986,733</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>178,859</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65,485</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>33,714</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>102,994</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-107,623</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-95,834</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>81,058</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,398,751</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>198,045</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,821,507</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>21.55</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,593,717</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,473,920</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>159,188</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-298,574</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1,102,107</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-1,558,915</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-1,232,725</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>657,920</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>23,956,371</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-1.74</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,254,609</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40,845,221</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>169,526</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7,028</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-2,602</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3,477</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>54,060</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2,348</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>52,454</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>223,122</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>368,802</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,797,020</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>73,593,230</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12,845,878</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>9,219,911</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7,629,895</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>15,031,185</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-5,001,814</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-10,478,274</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>9,798,282</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>345,494,647</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>433,235,025</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>670,413,434</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,768,759</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15,871</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-43,152</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-104,311</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-123,885</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-216,688</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>310,335</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-318,735</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>12,073,871</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.93</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>11,640,540</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>15,578,165</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>650,821</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-36,916</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-50,257</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-55,535</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-62,929</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-3,299</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-39,740</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-66,228</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,845,006</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-1.98</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-1.12</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>946,318</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4,737,310</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>387,993</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>208,802</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>41,111</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>35,112</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>65,683</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-5,945</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-139,394</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>62,416</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>668,057</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>781,446</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,422,501</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>378,246</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>79,690</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>45,172</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>18,916</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>171,575</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-176,680</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>171,575</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,067,671</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>23,530</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,342,428</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>218,842</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>44,691</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13,358</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>13,710</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-1,001</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-3,672</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-50,799</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-4,275</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>194,498</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>253,495</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>997,804</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>421,396</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>104,980</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>52,351</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>39,832</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>34,182</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-6,231</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-139,908</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>20,094</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>293,628</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>260,421</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,670,742</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>214,246</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-46,521</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-119,219</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-168,620</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-28,720</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-8,202</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-21,987</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-37,506</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>863,966</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-10.09</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-6.57</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>664,279</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2,437,612</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>519,484</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>64,786</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-13,941</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-23,901</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>37,919</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-133,534</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>56,377</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-30,303</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,587,680</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-2.34</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>873,092</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,611,577</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5,017,922</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,614,746</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-103,758</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>33,100</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-191,567</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-82,243</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-398,964</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-373,522</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>27,907,100</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>11,702,060</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>35,772,990</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,390,846</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>443,571</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>44,572</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>31,771</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>37,742</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-133,973</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>181,794</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-12,559</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5,823,384</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3,227,700</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11,694,785</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>107,425,651</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>35,471,045</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4,267,398</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6,250,390</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>9,655,102</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-3,454,870</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-17,824,696</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>6,092,385</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>226,587,355</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>151,285,282</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>378,078,535</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,493,071</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>229,676</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-186,312</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-377,368</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>230,465</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-106,469</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>56,246</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>59,715</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>9,931,702</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-2.01</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.12</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>15,459,202</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>28,580,736</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2,805,995</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>136,870</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-356,023</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-417,021</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-205,794</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-172,720</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>180,739</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-239,788</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>8,814,972</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.85</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-1.20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>15,450,274</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>31,117,079</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>11</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>74,484,602</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8,769,040</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>3,858,118</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3,058,266</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>14,133,821</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-20,146,839</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>216,042</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-6,451,140</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>139,565,599</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>202,438,870</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>354,910,543</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>37</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10,203,896</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3,171,178</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1,699,211</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1,401,314</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3,376,128</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-389,130</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-5,717,410</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-1,414,728</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>55,006,354</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>55,459,835</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>117,144,373</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>598,742</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>92,702</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14,807</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-171,915</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>222,336</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>105,622</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-292,501</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>218,608</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>8,540,095</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-10.01</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,758,302</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>10,172,245</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,075,348,211</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>80,022,935</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>42,107,393</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>35,260,821</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>79,210,712</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-60,082,796</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>23,988,899</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>67,408,570</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,335,584,909</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>306,954,132</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,379,048,820</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3,955,177</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>356,281</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>164,421</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>106,156</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-332,931</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-154,697</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-140,307</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-341,682</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>13,241,292</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,226,743</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>23,061,303</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9,850,164</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4,846,181</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>272,846</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>163,432</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>482,613</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>123,083</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-1,014,095</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-85,659</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>63,957,604</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>44,028,849</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>99,768,561</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,222,248</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>975,155</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>620,298</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2,551,075</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>159,302</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>138,982</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-1,409,212</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>155,440</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>23,976,589</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,807,574</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>59,775,658</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>149,854</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>35,667</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22,011</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>21,405</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-31,896</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-2,573</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-32,256</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>177,198</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>390,667</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,423,243</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,797,454</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,217,670</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>900,996</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>730,650</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>255,181</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-76,978</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>124,406</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-703,367</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>28,900,372</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>17,008,647</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>50,337,555</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>29,293,244</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8,822,337</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4,215,317</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3,014,860</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5,834,917</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-3,472,324</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-6,625,035</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2,031,513</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>77,496,796</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>102,441,746</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>164,431,451</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>113</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>58,517,979</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20,002,554</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11,491,001</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9,918,328</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>13,381,490</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-3,752,055</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-43,382,773</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>7,890,482</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>66,618,545</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>285,349,723</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>430,902,810</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,075,048</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>752,433</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>149,689</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>96,875</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>960,411</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-1,210,927</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-400,441</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>960,727</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>5,724,805</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2,467,527</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14,171,323</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>32,224</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>22,628</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-4,309</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-90,209</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-136,068</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-144,498</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>36,035</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-136,068</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10,534,502</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,933,660</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>92</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>128,451,229</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>19,926,267</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17,336,658</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>16,686,479</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>25,320,800</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>20,782,050</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-46,437,332</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>24,161,488</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>137,306,583</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>119,905,984</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>415,951,012</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,385,208</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>398,557</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>56,651</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>67,062</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>103,529</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-58,608</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-71,898</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>78,566</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,289,762</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,192,400</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>9,804,935</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,403,603</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>806,985</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78,156</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-19,755</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>386,509</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-105,565</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-5,249</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>367,289</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7,358,611</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,995,219</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>16,222,859</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,801,075</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,453,492</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>654,596</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>569,031</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,384,007</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,016,072</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-774,617</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>444,182</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>15,809,230</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>18,262,724</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>35,331,658</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8,164,265</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,044,259</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>270,281</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>930,226</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-323,122</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>5,029,820</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-3,711,875</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-439,313</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>9,155,570</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,541,538</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>29,435,760</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,048,556</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>312,865</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>168,896</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>126,092</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>105,151</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-189,846</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-6,023</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-68,694</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4,184,044</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>6,012,486</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>9,440,998</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>31,933,823</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-419,061</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-1,833,080</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-1,597,763</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-2,440,234</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-2,213,652</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3,014,529</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-3,269,819</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>133,257,425</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-2.97</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>99,416,905</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>185,836,330</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>857,051</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-119,347</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-177,903</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-185,424</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>290,476</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-222,009</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>51,378</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>50,536</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23,615,799</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-2.14</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>29,910,317</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>32,026,059</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>52,889,669</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>13,154,154</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4,131,187</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3,150,760</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>11,310,896</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-5,407,666</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-8,641,531</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>6,139,849</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>266,812,341</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>147,966,040</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>517,186,871</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>270,924</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7,305</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-11,100</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-1,835</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>156,898</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-14,277</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-75,087</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>142,731</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,674,499</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,712,641</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,704,051</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37.25</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>549,767</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>175,995</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85,624</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>64,289</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>109,229</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-45,506</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-94,606</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>106,436</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>385,928</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>710,946</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,875,858</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>38,163,589</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8,301,437</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,484,984</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1,756,199</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>13,888,223</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-15,400,432</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>8,884,813</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-5,973,928</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>155,960,409</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>215,414,139</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>374,959,291</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>41</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,305,901</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>505,825</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>310,791</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>215,659</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>277,441</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-169,850</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-187,330</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>99,827</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4,568,100</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,380,180</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>9,758,804</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>302,580</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3,599</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-49,839</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-62,299</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>104,650</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-32,998</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-68,384</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>74,933</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>322,161</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-1.88</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-1.69</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>982,190</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,608,870</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5,431,374</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,703,837</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1,144,280</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>877,038</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,351,372</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-2,735,047</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>187,755</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-406,746</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>21,060,510</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>29,125,431</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>44,213,343</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>90,968,814</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,924,228</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>955,770</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,265,975</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1,466,341</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>640,050</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-1,638,346</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1,304,114</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>81,589,214</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,874,345</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>123,999,840</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,461,114</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>856,592</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>153,742</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>106,368</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-145,110</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-35,646</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>6,329</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-259,237</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,158,728</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,529,336</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,856,926</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,152,877</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>985,056</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>371,487</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>305,145</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>486,116</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>70,705</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-898,592</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>319,310</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>14,661,271</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,533,006</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25,280,829</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7,621,410</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>322,685</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82,860</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>66,403</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-1,396,754</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-2,999</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>1,451,411</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-1,398,831</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>7,984,275</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>315,115</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10,148,877</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>877,350</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>316,379</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>54,422</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>156,190</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>163,356</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-88,593</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-127,327</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>-24,369</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2,940,132</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,497,791</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12,302,748</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>848,275</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>200,810</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-80,427</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-98,238</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-29,599</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-2,627</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1,701</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-78,985</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,794,987</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-2.10</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,353,075</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,415,222</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,656,340</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>562,762</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>298,528</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>203,061</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>908,760</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-83,318</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-2,494,428</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>812,636</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,893,150</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,350,856</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,434,004</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>300,918</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>251,741</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-120,639</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-168,319</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-167,793</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-205,977</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>111,155</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-350,802</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4,618,740</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-6.17</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>5,517,354</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>7,247,975</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14,100,055</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3,358,299</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,599,334</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,304,316</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,224,039</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-668,064</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-1,973,429</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1,536,972</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>14,272,002</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>13,608,618</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>28,853,998</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15,156,532</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,114,072</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>900,592</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>705,759</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>419,862</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-225,622</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-1,584,158</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-611</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25,376,702</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,207,706</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>45,110,081</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,003,706</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,105,913</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>869,750</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,024,650</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,845,962</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-269,362</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-540,868</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,677,097</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>36,520,474</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>18,507,460</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>92,129,161</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>950,671</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>88,810</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-505</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5,290</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>59,003</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-34,140</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-106,362</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>55,142</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,301,382</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>984,255</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,031,012</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,289,209</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,097,588</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>386,280</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>386,540</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>567,282</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-43,883</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-10,850</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>428,940</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>14,435,142</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,950,610</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>36,242,731</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>197,886,564</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8,693,086</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3,462,568</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,379,044</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-10,406,583</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-558,001</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1,966,083</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-11,501,826</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>226,746,102</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>21,108,045</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>334,573,387</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>270</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>117,807,829</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>17,061,145</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>4,657,938</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6,117,716</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>22,386,038</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-5,545,017</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-10,628,083</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>18,219,156</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>158,744,867</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>13,250,012</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>337,955,204</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>31,985,076</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,987,203</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>875,228</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,231,683</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>679,782</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-356,073</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-3,083,266</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>269,648</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>61,868,904</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>18,813,143</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>93,051,865</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>274</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>10,411,332</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,323,890</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,734,477</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,473,549</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2,032,531</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>1,811,022</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-3,686,704</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1,764,493</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>10,319,941</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,868,278</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>34,277,247</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>42.65</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>14,880,194</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,660,211</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>615,956</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>812,598</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>336,620</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-307,898</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-1,569,602</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>209,128</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>12,674,866</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>3,728,910</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>35,139,219</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>159,720</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>58,192</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>10,907</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>21,312</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-13,544</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>4,890</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-46,164</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>-13,544</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>320,832</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,952</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>992,896</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,273,964</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>205,687</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>70,134</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>62,084</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>38,329</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>3,399</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-37,978</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>38,329</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,660,447</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>363,346</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,640,021</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>191,486</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>175,902</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-52,203</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-59,029</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-55,564</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-16,204</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-56,879</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>272,781</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-3.09</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>51,400</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,882,009</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
